--- a/Bolnica/Use case scenarij/PregledPacijenta.xlsx
+++ b/Bolnica/Use case scenarij/PregledPacijenta.xlsx
@@ -59,12 +59,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>Pacijent dobija ili uputnicu za dalje preglede, ili uputnicu za lezanje u bolnici ili mu biva propisan recept</t>
-  </si>
-  <si>
-    <t>Pacijent nije clan bolnice ili nije slobodan termin pregleda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pacijent </t>
   </si>
   <si>
@@ -83,21 +77,12 @@
     <t>4. Verificira zahtjev</t>
   </si>
   <si>
-    <t>5.Odredjuje vrijeme pregleda</t>
-  </si>
-  <si>
     <t>6.Obavlja pregled</t>
   </si>
   <si>
-    <t>7.Daje izvjestaj o pregledu</t>
-  </si>
-  <si>
     <t>8.Propisuje lijekove</t>
   </si>
   <si>
-    <t>9.Izdaje uputnice za lezanje u bolnici</t>
-  </si>
-  <si>
     <t>3.Predaje zahtjev za pregledom</t>
   </si>
   <si>
@@ -110,9 +95,6 @@
     <t>Alternativni tok 2.</t>
   </si>
   <si>
-    <t>Identifikacija pacijenta neuspjesna</t>
-  </si>
-  <si>
     <t>Preduvjet:</t>
   </si>
   <si>
@@ -140,10 +122,28 @@
     <t>1.Daje informaciju da verifikacija zahtjeva nije uspjela</t>
   </si>
   <si>
-    <t>Pacijent, Doktor, Medicinska sestra</t>
-  </si>
-  <si>
     <t>2.Nastavak na koraku 3. ili odustajanje od pristupa</t>
+  </si>
+  <si>
+    <t>Identifikacija pacijenta neuspješna</t>
+  </si>
+  <si>
+    <t>5.Određuje vrijeme pregleda</t>
+  </si>
+  <si>
+    <t>7.Daje izvještaj o pregledu</t>
+  </si>
+  <si>
+    <t>9.Izdaje uputnice za ležanje u bolnici</t>
+  </si>
+  <si>
+    <t>Pacijent nije član bolnice ili nije slobodan termin pregleda</t>
+  </si>
+  <si>
+    <t>Doktor, Medicinska sestra</t>
+  </si>
+  <si>
+    <t>Pacijent dobija ili uputnicu za dalje preglede, ili uputnicu za ležanje u bolnici ili mu biva propisan recept</t>
   </si>
 </sst>
 </file>
@@ -207,9 +207,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,6 +218,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,271 +550,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+      <c r="B32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="B33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -822,6 +817,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
